--- a/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431091545444701</v>
+        <v>3.431091545444644</v>
       </c>
       <c r="C2">
-        <v>0.4720838580106772</v>
+        <v>0.4720838580109898</v>
       </c>
       <c r="D2">
-        <v>0.3696987719228559</v>
+        <v>0.3696987719229696</v>
       </c>
       <c r="E2">
-        <v>0.03457125058891641</v>
+        <v>0.03457125058885069</v>
       </c>
       <c r="F2">
-        <v>6.630932718943939</v>
+        <v>6.630932718944138</v>
       </c>
       <c r="G2">
-        <v>0.0007979867681652635</v>
+        <v>0.0007979867681451751</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.324698197791264</v>
+        <v>0.3246981977912071</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960339364792333</v>
+        <v>2.960339364792446</v>
       </c>
       <c r="C3">
-        <v>0.4043208534074267</v>
+        <v>0.4043208534079952</v>
       </c>
       <c r="D3">
-        <v>0.3333822111477218</v>
+        <v>0.3333822111480913</v>
       </c>
       <c r="E3">
-        <v>0.03292324760307963</v>
+        <v>0.03292324760322174</v>
       </c>
       <c r="F3">
         <v>5.85629235476452</v>
       </c>
       <c r="G3">
-        <v>0.0008103742514005141</v>
+        <v>0.0008103742515224704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2838699356659617</v>
+        <v>0.2838699356659902</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680384624173087</v>
+        <v>2.6803846241732</v>
       </c>
       <c r="C4">
-        <v>0.3638323374329673</v>
+        <v>0.3638323374329104</v>
       </c>
       <c r="D4">
-        <v>0.3117381889917397</v>
+        <v>0.3117381889916828</v>
       </c>
       <c r="E4">
-        <v>0.03195054810289655</v>
+        <v>0.03195054810288944</v>
       </c>
       <c r="F4">
-        <v>5.394444495076868</v>
+        <v>5.394444495076897</v>
       </c>
       <c r="G4">
-        <v>0.0008181172084977659</v>
+        <v>0.0008181172084936094</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2595963230419187</v>
+        <v>0.2595963230417766</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568270394588183</v>
+        <v>2.568270394588012</v>
       </c>
       <c r="C5">
-        <v>0.3475638348378709</v>
+        <v>0.3475638348384962</v>
       </c>
       <c r="D5">
-        <v>0.3030565159887857</v>
+        <v>0.3030565159889989</v>
       </c>
       <c r="E5">
-        <v>0.03156271001517652</v>
+        <v>0.03156271001520494</v>
       </c>
       <c r="F5">
-        <v>5.209192478942839</v>
+        <v>5.209192478942782</v>
       </c>
       <c r="G5">
-        <v>0.0008213112305653698</v>
+        <v>0.0008213112307154195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2498782481231956</v>
+        <v>0.2498782481230393</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549764343796767</v>
+        <v>2.54976434379671</v>
       </c>
       <c r="C6">
-        <v>0.3448750561598217</v>
+        <v>0.3448750561598501</v>
       </c>
       <c r="D6">
-        <v>0.3016225844813363</v>
+        <v>0.3016225844813931</v>
       </c>
       <c r="E6">
-        <v>0.03149879055353111</v>
+        <v>0.03149879055354887</v>
       </c>
       <c r="F6">
-        <v>5.178596128785102</v>
+        <v>5.178596128785045</v>
       </c>
       <c r="G6">
-        <v>0.0008218440488754659</v>
+        <v>0.0008218440487374898</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.678865027833126</v>
+        <v>2.67886502783324</v>
       </c>
       <c r="C7">
-        <v>0.3636120617251493</v>
+        <v>0.3636120617255472</v>
       </c>
       <c r="D7">
-        <v>0.3116205767424418</v>
+        <v>0.3116205767425839</v>
       </c>
       <c r="E7">
-        <v>0.03194528460143786</v>
+        <v>0.03194528460132595</v>
       </c>
       <c r="F7">
-        <v>5.391934791552387</v>
+        <v>5.391934791552501</v>
       </c>
       <c r="G7">
-        <v>0.0008181601221190121</v>
+        <v>0.000818160122142361</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2594645912828639</v>
+        <v>0.2594645912828781</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.266687060543006</v>
+        <v>3.266687060543234</v>
       </c>
       <c r="C8">
-        <v>0.448454702370725</v>
+        <v>0.4484547023706682</v>
       </c>
       <c r="D8">
-        <v>0.3570242533034502</v>
+        <v>0.3570242533028818</v>
       </c>
       <c r="E8">
-        <v>0.03399404874415879</v>
+        <v>0.03399404874414635</v>
       </c>
       <c r="F8">
-        <v>6.360648380997958</v>
+        <v>6.360648380997873</v>
       </c>
       <c r="G8">
-        <v>0.0008022322614888234</v>
+        <v>0.0008022322616891117</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3104387348333262</v>
+        <v>0.3104387348331841</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.508182504406875</v>
+        <v>4.508182504406761</v>
       </c>
       <c r="C9">
-        <v>0.6263785185948052</v>
+        <v>0.6263785185944073</v>
       </c>
       <c r="D9">
-        <v>0.4526235930315181</v>
+        <v>0.4526235930314044</v>
       </c>
       <c r="E9">
-        <v>0.03839140067376157</v>
+        <v>0.0383914006738344</v>
       </c>
       <c r="F9">
         <v>8.396472535864234</v>
       </c>
       <c r="G9">
-        <v>0.0007718620853844688</v>
+        <v>0.0007718620853922814</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4180888102210361</v>
+        <v>0.418088810221235</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.502363867736676</v>
+        <v>5.50236386773679</v>
       </c>
       <c r="C10">
         <v>0.7686712537954179</v>
       </c>
       <c r="D10">
-        <v>0.5291436967918344</v>
+        <v>0.5291436967917775</v>
       </c>
       <c r="E10">
-        <v>0.04196901202334757</v>
+        <v>0.04196901202340086</v>
       </c>
       <c r="F10">
         <v>10.01984744699328</v>
       </c>
       <c r="G10">
-        <v>0.000749705840593316</v>
+        <v>0.0007497058406043302</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5041690008845165</v>
+        <v>0.5041690008845023</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.980449192135666</v>
+        <v>5.980449192135438</v>
       </c>
       <c r="C11">
-        <v>0.8372322626410664</v>
+        <v>0.8372322626406685</v>
       </c>
       <c r="D11">
-        <v>0.5659676022852693</v>
+        <v>0.5659676022850704</v>
       </c>
       <c r="E11">
-        <v>0.04370492850334173</v>
+        <v>0.04370492850334529</v>
       </c>
       <c r="F11">
-        <v>10.79874318235034</v>
+        <v>10.79874318235028</v>
       </c>
       <c r="G11">
-        <v>0.000739555585706423</v>
+        <v>0.000739555585834629</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5454998201468868</v>
+        <v>0.5454998201473131</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.166051238037369</v>
+        <v>6.166051238037198</v>
       </c>
       <c r="C12">
-        <v>0.8638872161359075</v>
+        <v>0.8638872161363622</v>
       </c>
       <c r="D12">
-        <v>0.5802702302951559</v>
+        <v>0.5802702302954685</v>
       </c>
       <c r="E12">
-        <v>0.04438139315433887</v>
+        <v>0.04438139315431044</v>
       </c>
       <c r="F12">
-        <v>11.10084024994899</v>
+        <v>11.10084024994887</v>
       </c>
       <c r="G12">
-        <v>0.0007356906337016208</v>
+        <v>0.0007356906337101034</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5615320865434228</v>
+        <v>0.561532086543437</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.125860078395363</v>
+        <v>6.125860078395817</v>
       </c>
       <c r="C13">
-        <v>0.8581131863544442</v>
+        <v>0.8581131863548421</v>
       </c>
       <c r="D13">
-        <v>0.5771727160820035</v>
+        <v>0.5771727160819466</v>
       </c>
       <c r="E13">
-        <v>0.04423478975112438</v>
+        <v>0.04423478975107997</v>
       </c>
       <c r="F13">
-        <v>11.03543598464978</v>
+        <v>11.03543598464972</v>
       </c>
       <c r="G13">
-        <v>0.0007365241681687293</v>
+        <v>0.0007365241682667986</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5580610395705463</v>
+        <v>0.5580610395705747</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.995621828429648</v>
+        <v>5.995621828429819</v>
       </c>
       <c r="C14">
-        <v>0.8394103757084679</v>
+        <v>0.8394103757088942</v>
       </c>
       <c r="D14">
-        <v>0.5671366622185587</v>
+        <v>0.5671366622180756</v>
       </c>
       <c r="E14">
-        <v>0.04376017564492862</v>
+        <v>0.04376017564485224</v>
       </c>
       <c r="F14">
-        <v>10.82344497826688</v>
+        <v>10.8234449782671</v>
       </c>
       <c r="G14">
-        <v>0.0007392381119704899</v>
+        <v>0.0007392381119766891</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5468107171449219</v>
+        <v>0.546810717145263</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.916469564291333</v>
+        <v>5.916469564291219</v>
       </c>
       <c r="C15">
-        <v>0.8280492961488903</v>
+        <v>0.8280492961488619</v>
       </c>
       <c r="D15">
-        <v>0.5610382300056358</v>
+        <v>0.5610382300058063</v>
       </c>
       <c r="E15">
-        <v>0.04347206749904586</v>
+        <v>0.04347206749906718</v>
       </c>
       <c r="F15">
-        <v>10.69456957594713</v>
+        <v>10.6945695759473</v>
       </c>
       <c r="G15">
-        <v>0.0007408973424515321</v>
+        <v>0.0007408973426674968</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5399715069707867</v>
+        <v>0.5399715069707014</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>5.471707890944913</v>
       </c>
       <c r="C16">
-        <v>0.7642790940390967</v>
+        <v>0.7642790940382156</v>
       </c>
       <c r="D16">
-        <v>0.5267832338566336</v>
+        <v>0.5267832338571168</v>
       </c>
       <c r="E16">
-        <v>0.04185803120647513</v>
+        <v>0.04185803120647691</v>
       </c>
       <c r="F16">
-        <v>9.969865738612611</v>
+        <v>9.969865738612583</v>
       </c>
       <c r="G16">
-        <v>0.0007503668599871878</v>
+        <v>0.00075036685998723</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5015172032695006</v>
+        <v>0.5015172032696142</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.206023456486093</v>
+        <v>5.206023456485525</v>
       </c>
       <c r="C17">
-        <v>0.7262303643736914</v>
+        <v>0.726230364372384</v>
       </c>
       <c r="D17">
-        <v>0.5063292057355397</v>
+        <v>0.5063292057355682</v>
       </c>
       <c r="E17">
-        <v>0.04089791623422023</v>
+        <v>0.04089791623418471</v>
       </c>
       <c r="F17">
-        <v>9.536498565800855</v>
+        <v>9.53649856580077</v>
       </c>
       <c r="G17">
-        <v>0.0007561507144981938</v>
+        <v>0.0007561507146266318</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4785277065733879</v>
+        <v>0.4785277065732885</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.05557962397603</v>
+        <v>5.0555796239762</v>
       </c>
       <c r="C18">
-        <v>0.704696258799288</v>
+        <v>0.7046962587997712</v>
       </c>
       <c r="D18">
-        <v>0.4947493547042257</v>
+        <v>0.4947493547049362</v>
       </c>
       <c r="E18">
-        <v>0.04035564077287646</v>
+        <v>0.04035564077301323</v>
       </c>
       <c r="F18">
-        <v>9.290946821376281</v>
+        <v>9.290946821376252</v>
       </c>
       <c r="G18">
-        <v>0.0007594715066989115</v>
+        <v>0.0007594715065904826</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4655043796285838</v>
+        <v>0.4655043796284559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.005026190532988</v>
+        <v>5.005026190533044</v>
       </c>
       <c r="C19">
-        <v>0.6974615787439404</v>
+        <v>0.6974615787444236</v>
       </c>
       <c r="D19">
-        <v>0.4908584922089574</v>
+        <v>0.4908584922092416</v>
       </c>
       <c r="E19">
-        <v>0.04017365078413704</v>
+        <v>0.04017365078421697</v>
       </c>
       <c r="F19">
-        <v>9.208408136718106</v>
+        <v>9.20840813671802</v>
       </c>
       <c r="G19">
-        <v>0.0007605951504935311</v>
+        <v>0.0007605951502845077</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4611273237789817</v>
+        <v>0.4611273237787827</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.234055086508363</v>
+        <v>5.234055086508704</v>
       </c>
       <c r="C20">
-        <v>0.7302435161486187</v>
+        <v>0.7302435161490735</v>
       </c>
       <c r="D20">
-        <v>0.5084869992089125</v>
+        <v>0.5084869992088557</v>
       </c>
       <c r="E20">
-        <v>0.04099906852901292</v>
+        <v>0.04099906852887436</v>
       </c>
       <c r="F20">
-        <v>9.582238536422238</v>
+        <v>9.582238536422295</v>
       </c>
       <c r="G20">
-        <v>0.0007555356995341783</v>
+        <v>0.0007555356994065043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4809538650615082</v>
+        <v>0.4809538650616076</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.033744456367742</v>
+        <v>6.033744456367799</v>
       </c>
       <c r="C21">
-        <v>0.8448837596969838</v>
+        <v>0.8448837596969554</v>
       </c>
       <c r="D21">
         <v>0.5700741509503473</v>
       </c>
       <c r="E21">
-        <v>0.04389903063602851</v>
+        <v>0.04389903063613687</v>
       </c>
       <c r="F21">
         <v>10.88550583400433</v>
       </c>
       <c r="G21">
-        <v>0.0007384416382132218</v>
+        <v>0.0007384416380858954</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5501042412347061</v>
+        <v>0.5501042412348198</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.583518241815682</v>
+        <v>6.583518241815796</v>
       </c>
       <c r="C22">
-        <v>0.9239353952516183</v>
+        <v>0.9239353952515899</v>
       </c>
       <c r="D22">
-        <v>0.6124565344618134</v>
+        <v>0.6124565344615007</v>
       </c>
       <c r="E22">
-        <v>0.04590797515079892</v>
+        <v>0.04590797515084155</v>
       </c>
       <c r="F22">
-        <v>11.77976820150815</v>
+        <v>11.77976820150826</v>
       </c>
       <c r="G22">
-        <v>0.0007271386805854275</v>
+        <v>0.0007271386806843316</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5975635143820739</v>
+        <v>0.5975635143820455</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.287278360120695</v>
+        <v>6.287278360120752</v>
       </c>
       <c r="C23">
-        <v>0.8813103805293281</v>
+        <v>0.8813103805285039</v>
       </c>
       <c r="D23">
-        <v>0.5896143755322782</v>
+        <v>0.5896143755321646</v>
       </c>
       <c r="E23">
-        <v>0.04482398079058925</v>
+        <v>0.04482398079061412</v>
       </c>
       <c r="F23">
-        <v>11.29807258623384</v>
+        <v>11.29807258623367</v>
       </c>
       <c r="G23">
-        <v>0.0007331875829277456</v>
+        <v>0.000733187582782594</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5719994264956938</v>
+        <v>0.5719994264957364</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.221374878727318</v>
+        <v>5.221374878727033</v>
       </c>
       <c r="C24">
-        <v>0.7284281195094877</v>
+        <v>0.7284281195086919</v>
       </c>
       <c r="D24">
-        <v>0.5075109068249049</v>
+        <v>0.5075109068247059</v>
       </c>
       <c r="E24">
-        <v>0.04095330759461291</v>
+        <v>0.04095330759458982</v>
       </c>
       <c r="F24">
-        <v>9.561548389210088</v>
+        <v>9.561548389210003</v>
       </c>
       <c r="G24">
-        <v>0.0007558137608422739</v>
+        <v>0.0007558137608540354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4798564006490551</v>
+        <v>0.4798564006491972</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.160234022725831</v>
+        <v>4.160234022725319</v>
       </c>
       <c r="C25">
         <v>0.5765920289094026</v>
       </c>
       <c r="D25">
-        <v>0.4258468636910493</v>
+        <v>0.4258468636914756</v>
       </c>
       <c r="E25">
-        <v>0.03715046589649695</v>
+        <v>0.03715046589648452</v>
       </c>
       <c r="F25">
-        <v>7.827000812102881</v>
+        <v>7.827000812102938</v>
       </c>
       <c r="G25">
-        <v>0.0007800199294715135</v>
+        <v>0.0007800199294693061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3879294792234589</v>
+        <v>0.3879294792231462</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.431091545444644</v>
+        <v>3.442909406515184</v>
       </c>
       <c r="C2">
-        <v>0.4720838580109898</v>
+        <v>0.6420298590298898</v>
       </c>
       <c r="D2">
-        <v>0.3696987719229696</v>
+        <v>0.03147777088654635</v>
       </c>
       <c r="E2">
-        <v>0.03457125058885069</v>
+        <v>0.05625339710149291</v>
       </c>
       <c r="F2">
-        <v>6.630932718944138</v>
+        <v>0.8387167427683693</v>
       </c>
       <c r="G2">
-        <v>0.0007979867681451751</v>
+        <v>0.7607425350749963</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004035148621812645</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4981637526816058</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4232985106441873</v>
       </c>
       <c r="L2">
-        <v>0.3246981977912071</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3838436355036237</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960339364792446</v>
+        <v>2.994191461251376</v>
       </c>
       <c r="C3">
-        <v>0.4043208534079952</v>
+        <v>0.5665054544600423</v>
       </c>
       <c r="D3">
-        <v>0.3333822111480913</v>
+        <v>0.03012327070019083</v>
       </c>
       <c r="E3">
-        <v>0.03292324760322174</v>
+        <v>0.05222396829549059</v>
       </c>
       <c r="F3">
-        <v>5.85629235476452</v>
+        <v>0.7692372674342494</v>
       </c>
       <c r="G3">
-        <v>0.0008103742515224704</v>
+        <v>0.6974030360383665</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.44384298428335E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4754540591552541</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4147080557330369</v>
       </c>
       <c r="L3">
-        <v>0.2838699356659902</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.336353066917539</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.6803846241732</v>
+        <v>2.719120960917905</v>
       </c>
       <c r="C4">
-        <v>0.3638323374329104</v>
+        <v>0.5201579675428718</v>
       </c>
       <c r="D4">
-        <v>0.3117381889916828</v>
+        <v>0.02928011050039814</v>
       </c>
       <c r="E4">
-        <v>0.03195054810288944</v>
+        <v>0.04975647678078321</v>
       </c>
       <c r="F4">
-        <v>5.394444495076897</v>
+        <v>0.7281757645589124</v>
       </c>
       <c r="G4">
-        <v>0.0008181172084936094</v>
+        <v>0.6601198222365809</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.000115391301393819</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4624360105904373</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4104089470807644</v>
       </c>
       <c r="L4">
-        <v>0.2595963230417766</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3072857171086127</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568270394588012</v>
+        <v>2.607097584906114</v>
       </c>
       <c r="C5">
-        <v>0.3475638348384962</v>
+        <v>0.5012682927311118</v>
       </c>
       <c r="D5">
-        <v>0.3030565159889989</v>
+        <v>0.02893365728498409</v>
       </c>
       <c r="E5">
-        <v>0.03156271001520494</v>
+        <v>0.04875091959662026</v>
       </c>
       <c r="F5">
-        <v>5.209192478942782</v>
+        <v>0.7118153097408069</v>
       </c>
       <c r="G5">
-        <v>0.0008213112307154195</v>
+        <v>0.6453001214644587</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0002464561204480464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4573497045275303</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4088882228994812</v>
       </c>
       <c r="L5">
-        <v>0.2498782481230393</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2954569591859695</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54976434379671</v>
+        <v>2.588499261820402</v>
       </c>
       <c r="C6">
-        <v>0.3448750561598501</v>
+        <v>0.4981312647634297</v>
       </c>
       <c r="D6">
-        <v>0.3016225844813931</v>
+        <v>0.02887595741694682</v>
       </c>
       <c r="E6">
-        <v>0.03149879055354887</v>
+        <v>0.04858389789310014</v>
       </c>
       <c r="F6">
-        <v>5.178596128785045</v>
+        <v>0.7091203252137817</v>
       </c>
       <c r="G6">
-        <v>0.0008218440487374898</v>
+        <v>0.6428610138621735</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0002731581483943479</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4565179342232852</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4086492731596856</v>
       </c>
       <c r="L6">
-        <v>0.2482743431852157</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2934936054639365</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.67886502783324</v>
+        <v>2.717609943573677</v>
       </c>
       <c r="C7">
-        <v>0.3636120617255472</v>
+        <v>0.5199032370493057</v>
       </c>
       <c r="D7">
-        <v>0.3116205767425839</v>
+        <v>0.02927544963830186</v>
       </c>
       <c r="E7">
-        <v>0.03194528460132595</v>
+        <v>0.04974291779007967</v>
       </c>
       <c r="F7">
-        <v>5.391934791552501</v>
+        <v>0.7279536518276117</v>
       </c>
       <c r="G7">
-        <v>0.000818160122142361</v>
+        <v>0.6599184856261502</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001168240643636409</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4623665477072905</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4103875200510316</v>
       </c>
       <c r="L7">
-        <v>0.2594645912828781</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.307126132460823</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.266687060543234</v>
+        <v>3.288073196320795</v>
       </c>
       <c r="C8">
-        <v>0.4484547023706682</v>
+        <v>0.6159782950288388</v>
       </c>
       <c r="D8">
-        <v>0.3570242533028818</v>
+        <v>0.03101313987776066</v>
       </c>
       <c r="E8">
-        <v>0.03399404874414635</v>
+        <v>0.05486163082466788</v>
       </c>
       <c r="F8">
-        <v>6.360648380997873</v>
+        <v>0.8144099261847231</v>
       </c>
       <c r="G8">
-        <v>0.0008022322616891117</v>
+        <v>0.7385504245623622</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001862246479547025</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4901325429730292</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4201253530465294</v>
       </c>
       <c r="L8">
-        <v>0.3104387348331841</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3674456041350993</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.508182504406761</v>
+        <v>4.412356018884964</v>
       </c>
       <c r="C9">
-        <v>0.6263785185944073</v>
+        <v>0.8050238008923145</v>
       </c>
       <c r="D9">
-        <v>0.4526235930314044</v>
+        <v>0.03432881818913813</v>
       </c>
       <c r="E9">
-        <v>0.0383914006738344</v>
+        <v>0.06503360878863784</v>
       </c>
       <c r="F9">
-        <v>8.396472535864234</v>
+        <v>0.9980686925490261</v>
       </c>
       <c r="G9">
-        <v>0.0007718620853922814</v>
+        <v>0.9069800421248573</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003476201083783881</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5526078172351703</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.447635363303597</v>
       </c>
       <c r="L9">
-        <v>0.418088810221235</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.486790234391492</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.50236386773679</v>
+        <v>5.243872103744025</v>
       </c>
       <c r="C10">
-        <v>0.7686712537954179</v>
+        <v>0.9542834647596123</v>
       </c>
       <c r="D10">
-        <v>0.5291436967917775</v>
+        <v>0.0376982155167731</v>
       </c>
       <c r="E10">
-        <v>0.04196901202340086</v>
+        <v>0.07054041191233384</v>
       </c>
       <c r="F10">
-        <v>10.01984744699328</v>
+        <v>1.123023744846634</v>
       </c>
       <c r="G10">
-        <v>0.0007497058406043302</v>
+        <v>1.018537729088877</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008170678936525455</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5927979485841632</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4603368703947837</v>
       </c>
       <c r="L10">
-        <v>0.5041690008845023</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.554533024474523</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.980449192135438</v>
+        <v>5.614814018843788</v>
       </c>
       <c r="C11">
-        <v>0.8372322626406685</v>
+        <v>1.108146996345596</v>
       </c>
       <c r="D11">
-        <v>0.5659676022850704</v>
+        <v>0.04935248978033968</v>
       </c>
       <c r="E11">
-        <v>0.04370492850334529</v>
+        <v>0.06184893299388072</v>
       </c>
       <c r="F11">
-        <v>10.79874318235028</v>
+        <v>1.00720469946647</v>
       </c>
       <c r="G11">
-        <v>0.000739555585834629</v>
+        <v>0.8788903569502082</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02726067635411766</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5150418658985387</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3573878651766762</v>
       </c>
       <c r="L11">
-        <v>0.5454998201473131</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4164897097703744</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.166051238037198</v>
+        <v>5.75210919122577</v>
       </c>
       <c r="C12">
-        <v>0.8638872161363622</v>
+        <v>1.213005050597928</v>
       </c>
       <c r="D12">
-        <v>0.5802702302954685</v>
+        <v>0.06055143732831425</v>
       </c>
       <c r="E12">
-        <v>0.04438139315431044</v>
+        <v>0.06364445492792115</v>
       </c>
       <c r="F12">
-        <v>11.10084024994887</v>
+        <v>0.887945738957697</v>
       </c>
       <c r="G12">
-        <v>0.0007356906337101034</v>
+        <v>0.7458850684496667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0656650092750084</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4447504767068011</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2780720862775716</v>
       </c>
       <c r="L12">
-        <v>0.561532086543437</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3044616389033337</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.125860078395817</v>
+        <v>5.71583732749616</v>
       </c>
       <c r="C13">
-        <v>0.8581131863548421</v>
+        <v>1.284837816527386</v>
       </c>
       <c r="D13">
-        <v>0.5771727160819466</v>
+        <v>0.07185227145006223</v>
       </c>
       <c r="E13">
-        <v>0.04423478975107997</v>
+        <v>0.07333936148064524</v>
       </c>
       <c r="F13">
-        <v>11.03543598464972</v>
+        <v>0.7589713866702965</v>
       </c>
       <c r="G13">
-        <v>0.0007365241682667986</v>
+        <v>0.6101273145759336</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1204761339102021</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3759569524056587</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2119312646201301</v>
       </c>
       <c r="L13">
-        <v>0.5580610395705747</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2067444304316339</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.995621828429819</v>
+        <v>5.61200781916807</v>
       </c>
       <c r="C14">
-        <v>0.8394103757088942</v>
+        <v>1.320287464059106</v>
       </c>
       <c r="D14">
-        <v>0.5671366622180756</v>
+        <v>0.07994713022126376</v>
       </c>
       <c r="E14">
-        <v>0.04376017564485224</v>
+        <v>0.08490125370807178</v>
       </c>
       <c r="F14">
-        <v>10.8234449782671</v>
+        <v>0.6658836618817503</v>
       </c>
       <c r="G14">
-        <v>0.0007392381119766891</v>
+        <v>0.515920511564687</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1689341316274806</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3294312373059682</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1732450841591273</v>
       </c>
       <c r="L14">
-        <v>0.546810717145263</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.14806191221912</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.916469564291219</v>
+        <v>5.549684883731231</v>
       </c>
       <c r="C15">
-        <v>0.8280492961488619</v>
+        <v>1.320799522972379</v>
       </c>
       <c r="D15">
-        <v>0.5610382300058063</v>
+        <v>0.08163040845142433</v>
       </c>
       <c r="E15">
-        <v>0.04347206749906718</v>
+        <v>0.08800453615195636</v>
       </c>
       <c r="F15">
-        <v>10.6945695759473</v>
+        <v>0.6406593585178371</v>
       </c>
       <c r="G15">
-        <v>0.0007408973426674968</v>
+        <v>0.4914450900645022</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1810403343063882</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3179852621560713</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1653085801413425</v>
       </c>
       <c r="L15">
-        <v>0.5399715069707014</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1345561813143945</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.471707890944913</v>
+        <v>5.197026350760552</v>
       </c>
       <c r="C16">
-        <v>0.7642790940382156</v>
+        <v>1.238310917252136</v>
       </c>
       <c r="D16">
-        <v>0.5267832338571168</v>
+        <v>0.0773512502633551</v>
       </c>
       <c r="E16">
-        <v>0.04185803120647691</v>
+        <v>0.08323266112963701</v>
       </c>
       <c r="F16">
-        <v>9.969865738612583</v>
+        <v>0.6140193296812555</v>
       </c>
       <c r="G16">
-        <v>0.00075036685998723</v>
+        <v>0.4720818433223712</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1663425791658</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3148842074241145</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1729624679586834</v>
       </c>
       <c r="L16">
-        <v>0.5015172032696142</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1289339269244252</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.206023456485525</v>
+        <v>4.982624025226357</v>
       </c>
       <c r="C17">
-        <v>0.726230364372384</v>
+        <v>1.156513121999126</v>
       </c>
       <c r="D17">
-        <v>0.5063292057355682</v>
+        <v>0.06971260987719319</v>
       </c>
       <c r="E17">
-        <v>0.04089791623418471</v>
+        <v>0.07263849308883508</v>
       </c>
       <c r="F17">
-        <v>9.53649856580077</v>
+        <v>0.6425565055989253</v>
       </c>
       <c r="G17">
-        <v>0.0007561507146266318</v>
+        <v>0.5064747216137704</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.127588206865525</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3369211118893389</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1986685778614223</v>
       </c>
       <c r="L17">
-        <v>0.4785277065732885</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1534250975245612</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.0555796239762</v>
+        <v>4.861845780642909</v>
       </c>
       <c r="C18">
-        <v>0.7046962587997712</v>
+        <v>1.06845942936161</v>
       </c>
       <c r="D18">
-        <v>0.4947493547049362</v>
+        <v>0.05923035943307298</v>
       </c>
       <c r="E18">
-        <v>0.04035564077301323</v>
+        <v>0.06070433860385549</v>
       </c>
       <c r="F18">
-        <v>9.290946821376252</v>
+        <v>0.7244961504916034</v>
       </c>
       <c r="G18">
-        <v>0.0007594715065904826</v>
+        <v>0.5954529772809281</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07454910346951493</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3851280157875436</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2479392805894634</v>
       </c>
       <c r="L18">
-        <v>0.4655043796284559</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.216206446782536</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.005026190533044</v>
+        <v>4.825006709288289</v>
       </c>
       <c r="C19">
-        <v>0.6974615787444236</v>
+        <v>0.9851000359814464</v>
       </c>
       <c r="D19">
-        <v>0.4908584922092416</v>
+        <v>0.04848989264797865</v>
       </c>
       <c r="E19">
-        <v>0.04017365078421697</v>
+        <v>0.05574900035394581</v>
       </c>
       <c r="F19">
-        <v>9.20840813671802</v>
+        <v>0.8488905239102422</v>
       </c>
       <c r="G19">
-        <v>0.0007605951502845077</v>
+        <v>0.7299344071394245</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02989001280717929</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4546217147676401</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3207857148849094</v>
       </c>
       <c r="L19">
-        <v>0.4611273237787827</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.32024891312129</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.234055086508704</v>
+        <v>5.024921615433357</v>
       </c>
       <c r="C20">
-        <v>0.7302435161490735</v>
+        <v>0.9153414457040583</v>
       </c>
       <c r="D20">
-        <v>0.5084869992088557</v>
+        <v>0.03685190035499986</v>
       </c>
       <c r="E20">
-        <v>0.04099906852887436</v>
+        <v>0.06897508970418542</v>
       </c>
       <c r="F20">
-        <v>9.582238536422295</v>
+        <v>1.088543295115926</v>
       </c>
       <c r="G20">
-        <v>0.0007555356994065043</v>
+        <v>0.9874627250040078</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.006740826495270635</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5813179910998798</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4559646536543625</v>
       </c>
       <c r="L20">
-        <v>0.4809538650616076</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5357990774162005</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.033744456367799</v>
+        <v>5.667744744599986</v>
       </c>
       <c r="C21">
-        <v>0.8448837596969554</v>
+        <v>1.016096084452073</v>
       </c>
       <c r="D21">
-        <v>0.5700741509503473</v>
+        <v>0.03789617556543945</v>
       </c>
       <c r="E21">
-        <v>0.04389903063613687</v>
+        <v>0.07667226696502638</v>
       </c>
       <c r="F21">
-        <v>10.88550583400433</v>
+        <v>1.220520830781837</v>
       </c>
       <c r="G21">
-        <v>0.0007384416380858954</v>
+        <v>1.112864676781072</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01135744413664194</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6323123034460139</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4890708150418277</v>
       </c>
       <c r="L21">
-        <v>0.5501042412348198</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6208569352155706</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.583518241815796</v>
+        <v>6.089635418754256</v>
       </c>
       <c r="C22">
-        <v>0.9239353952515899</v>
+        <v>1.087093190248623</v>
       </c>
       <c r="D22">
-        <v>0.6124565344615007</v>
+        <v>0.03906838301154636</v>
       </c>
       <c r="E22">
-        <v>0.04590797515084155</v>
+        <v>0.08067167827600485</v>
       </c>
       <c r="F22">
-        <v>11.77976820150826</v>
+        <v>1.298926937484936</v>
       </c>
       <c r="G22">
-        <v>0.0007271386806843316</v>
+        <v>1.185827363063936</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01490240194375969</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6611518845169257</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5052166476325937</v>
       </c>
       <c r="L22">
-        <v>0.5975635143820455</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6661108896251591</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.287278360120752</v>
+        <v>5.864227661539019</v>
       </c>
       <c r="C23">
-        <v>0.8813103805285039</v>
+        <v>1.049155185150994</v>
       </c>
       <c r="D23">
-        <v>0.5896143755321646</v>
+        <v>0.03844363390025762</v>
       </c>
       <c r="E23">
-        <v>0.04482398079061412</v>
+        <v>0.07852882380387349</v>
       </c>
       <c r="F23">
-        <v>11.29807258623367</v>
+        <v>1.256818382050227</v>
       </c>
       <c r="G23">
-        <v>0.000733187582782594</v>
+        <v>1.146618810875395</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01295456122001187</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.645621757366996</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4964584665827658</v>
       </c>
       <c r="L23">
-        <v>0.5719994264957364</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6419199906870574</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.221374878727033</v>
+        <v>5.01530793784184</v>
       </c>
       <c r="C24">
-        <v>0.7284281195086919</v>
+        <v>0.9063766887317684</v>
       </c>
       <c r="D24">
-        <v>0.5075109068247059</v>
+        <v>0.03605793116865641</v>
       </c>
       <c r="E24">
-        <v>0.04095330759458982</v>
+        <v>0.07057837136828482</v>
       </c>
       <c r="F24">
-        <v>9.561548389210003</v>
+        <v>1.10280520798284</v>
       </c>
       <c r="G24">
-        <v>0.0007558137608540354</v>
+        <v>1.003693912035885</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.006746664780115097</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5896976197456496</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4662492307867723</v>
       </c>
       <c r="L24">
-        <v>0.4798564006491972</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5510718594273811</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.160234022725319</v>
+        <v>4.107291658493068</v>
       </c>
       <c r="C25">
-        <v>0.5765920289094026</v>
+        <v>0.753745807216518</v>
       </c>
       <c r="D25">
-        <v>0.4258468636914756</v>
+        <v>0.03344172465785533</v>
       </c>
       <c r="E25">
-        <v>0.03715046589648452</v>
+        <v>0.06225534455894177</v>
       </c>
       <c r="F25">
-        <v>7.827000812102938</v>
+        <v>0.9466616094346989</v>
       </c>
       <c r="G25">
-        <v>0.0007800199294693061</v>
+        <v>0.859673605558001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002205906331382956</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5347469759493464</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4391933304017499</v>
       </c>
       <c r="L25">
-        <v>0.3879294792231462</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4543421100148635</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.442909406515184</v>
+        <v>3.444711439838272</v>
       </c>
       <c r="C2">
-        <v>0.6420298590298898</v>
+        <v>0.7021165673839675</v>
       </c>
       <c r="D2">
-        <v>0.03147777088654635</v>
+        <v>0.0365853677444079</v>
       </c>
       <c r="E2">
-        <v>0.05625339710149291</v>
+        <v>0.05190020569378717</v>
       </c>
       <c r="F2">
-        <v>0.8387167427683693</v>
+        <v>0.7333355663602106</v>
       </c>
       <c r="G2">
-        <v>0.7607425350749963</v>
+        <v>0.6229248265397445</v>
       </c>
       <c r="H2">
-        <v>0.0004035148621812645</v>
+        <v>0.0004325582189725896</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4981637526816058</v>
+        <v>0.4830949334839119</v>
       </c>
       <c r="K2">
-        <v>0.4232985106441873</v>
+        <v>0.3456530208813433</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1840225227959067</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08788023790765465</v>
       </c>
       <c r="N2">
-        <v>0.3838436355036237</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3938832295955308</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.994191461251376</v>
+        <v>2.998529975625331</v>
       </c>
       <c r="C3">
-        <v>0.5665054544600423</v>
+        <v>0.6128912753187592</v>
       </c>
       <c r="D3">
-        <v>0.03012327070019083</v>
+        <v>0.03382716336221847</v>
       </c>
       <c r="E3">
-        <v>0.05222396829549059</v>
+        <v>0.04874351448365122</v>
       </c>
       <c r="F3">
-        <v>0.7692372674342494</v>
+        <v>0.6799538045746658</v>
       </c>
       <c r="G3">
-        <v>0.6974030360383665</v>
+        <v>0.5776365038967839</v>
       </c>
       <c r="H3">
-        <v>1.44384298428335E-06</v>
+        <v>1.626487103201235E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4754540591552541</v>
+        <v>0.465259303069729</v>
       </c>
       <c r="K3">
-        <v>0.4147080557330369</v>
+        <v>0.345869642040288</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1889083705319123</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08345848745653583</v>
       </c>
       <c r="N3">
-        <v>0.336353066917539</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3459431879456218</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.719120960917905</v>
+        <v>2.724611932846244</v>
       </c>
       <c r="C4">
-        <v>0.5201579675428718</v>
+        <v>0.5582999564615818</v>
       </c>
       <c r="D4">
-        <v>0.02928011050039814</v>
+        <v>0.03213508708211066</v>
       </c>
       <c r="E4">
-        <v>0.04975647678078321</v>
+        <v>0.04680091264350139</v>
       </c>
       <c r="F4">
-        <v>0.7281757645589124</v>
+        <v>0.6483106903721776</v>
       </c>
       <c r="G4">
-        <v>0.6601198222365809</v>
+        <v>0.5511853862855816</v>
       </c>
       <c r="H4">
-        <v>0.000115391301393819</v>
+        <v>4.33084484006141E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4624360105904373</v>
+        <v>0.4546954259136413</v>
       </c>
       <c r="K4">
-        <v>0.4104089470807644</v>
+        <v>0.3466779635416053</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1920466302793038</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08165547552533603</v>
       </c>
       <c r="N4">
-        <v>0.3072857171086127</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3165763048017141</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.607097584906114</v>
+        <v>2.61296771083471</v>
       </c>
       <c r="C5">
-        <v>0.5012682927311118</v>
+        <v>0.5360933283511145</v>
       </c>
       <c r="D5">
-        <v>0.02893365728498409</v>
+        <v>0.03144590875444209</v>
       </c>
       <c r="E5">
-        <v>0.04875091959662026</v>
+        <v>0.04600695744768313</v>
       </c>
       <c r="F5">
-        <v>0.7118153097408069</v>
+        <v>0.6356785946381862</v>
       </c>
       <c r="G5">
-        <v>0.6453001214644587</v>
+        <v>0.5407202081571114</v>
       </c>
       <c r="H5">
-        <v>0.0002464561204480464</v>
+        <v>0.0001207468646886589</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4573497045275303</v>
+        <v>0.4504813616997438</v>
       </c>
       <c r="K5">
-        <v>0.4088882228994812</v>
+        <v>0.3471675275974562</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1933597567553242</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0811422926138583</v>
       </c>
       <c r="N5">
-        <v>0.2954569591859695</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3046210640015516</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.588499261820402</v>
+        <v>2.594427199173936</v>
       </c>
       <c r="C6">
-        <v>0.4981312647634297</v>
+        <v>0.5324080904111952</v>
       </c>
       <c r="D6">
-        <v>0.02887595741694682</v>
+        <v>0.03133149259378598</v>
       </c>
       <c r="E6">
-        <v>0.04858389789310014</v>
+        <v>0.04587494649457735</v>
       </c>
       <c r="F6">
-        <v>0.7091203252137817</v>
+        <v>0.6335962813219709</v>
       </c>
       <c r="G6">
-        <v>0.6428610138621735</v>
+        <v>0.5390006615607064</v>
       </c>
       <c r="H6">
-        <v>0.0002731581483943479</v>
+        <v>0.0001374846888280157</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4565179342232852</v>
+        <v>0.4497869171405711</v>
       </c>
       <c r="K6">
-        <v>0.4086492731596856</v>
+        <v>0.3472582192170677</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.193579855008494</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08107024107694194</v>
       </c>
       <c r="N6">
-        <v>0.2934936054639365</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3026364829909198</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.717609943573677</v>
+        <v>2.723051615510997</v>
       </c>
       <c r="C7">
-        <v>0.5199032370493057</v>
+        <v>0.5571923368868568</v>
       </c>
       <c r="D7">
-        <v>0.02927544963830186</v>
+        <v>0.03224992987961528</v>
       </c>
       <c r="E7">
-        <v>0.04974291779007967</v>
+        <v>0.04679251855605493</v>
       </c>
       <c r="F7">
-        <v>0.7279536518276117</v>
+        <v>0.6460041656507514</v>
       </c>
       <c r="G7">
-        <v>0.6599184856261502</v>
+        <v>0.553935492489245</v>
       </c>
       <c r="H7">
-        <v>0.0001168240643636409</v>
+        <v>4.476058001823269E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4623665477072905</v>
+        <v>0.4479121669828032</v>
       </c>
       <c r="K7">
-        <v>0.4103875200510316</v>
+        <v>0.345641681112248</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1915835743628804</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08134168985819912</v>
       </c>
       <c r="N7">
-        <v>0.307126132460823</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.316308863173461</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.288073196320795</v>
+        <v>3.290636770600713</v>
       </c>
       <c r="C8">
-        <v>0.6159782950288388</v>
+        <v>0.668579048463215</v>
       </c>
       <c r="D8">
-        <v>0.03101313987776066</v>
+        <v>0.03606354182622695</v>
       </c>
       <c r="E8">
-        <v>0.05486163082466788</v>
+        <v>0.05082174609198198</v>
       </c>
       <c r="F8">
-        <v>0.8144099261847231</v>
+        <v>0.7076144973183744</v>
       </c>
       <c r="G8">
-        <v>0.7385504245623622</v>
+        <v>0.6166934675643319</v>
       </c>
       <c r="H8">
-        <v>0.0001862246479547025</v>
+        <v>0.0002228109804578438</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4901325429730292</v>
+        <v>0.4548286106358006</v>
       </c>
       <c r="K8">
-        <v>0.4201253530465294</v>
+        <v>0.3421897449121438</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1842229920162666</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0850550393328362</v>
       </c>
       <c r="N8">
-        <v>0.3674456041350993</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3769800464468744</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.412356018884964</v>
+        <v>4.405694107035572</v>
       </c>
       <c r="C9">
-        <v>0.8050238008923145</v>
+        <v>0.8919065795414554</v>
       </c>
       <c r="D9">
-        <v>0.03432881818913813</v>
+        <v>0.04310244074008551</v>
       </c>
       <c r="E9">
-        <v>0.06503360878863784</v>
+        <v>0.05873785872873594</v>
       </c>
       <c r="F9">
-        <v>0.9980686925490261</v>
+        <v>0.846231847192783</v>
       </c>
       <c r="G9">
-        <v>0.9069800421248573</v>
+        <v>0.7412568357262472</v>
       </c>
       <c r="H9">
-        <v>0.003476201083783881</v>
+        <v>0.003030337247084236</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5526078172351703</v>
+        <v>0.4957515164108344</v>
       </c>
       <c r="K9">
-        <v>0.447635363303597</v>
+        <v>0.3450160183554338</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1726669927438884</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1010405462573374</v>
       </c>
       <c r="N9">
-        <v>0.486790234391492</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4971373295770007</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.243872103744025</v>
+        <v>5.22706056959646</v>
       </c>
       <c r="C10">
-        <v>0.9542834647596123</v>
+        <v>1.060617374042238</v>
       </c>
       <c r="D10">
-        <v>0.0376982155167731</v>
+        <v>0.05020118407222895</v>
       </c>
       <c r="E10">
-        <v>0.07054041191233384</v>
+        <v>0.06295351107909752</v>
       </c>
       <c r="F10">
-        <v>1.123023744846634</v>
+        <v>0.9276708838707606</v>
       </c>
       <c r="G10">
-        <v>1.018537729088877</v>
+        <v>0.8419769660650473</v>
       </c>
       <c r="H10">
-        <v>0.008170678936525455</v>
+        <v>0.006839625270694594</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5927979485841632</v>
+        <v>0.4827804792139005</v>
       </c>
       <c r="K10">
-        <v>0.4603368703947837</v>
+        <v>0.336422650447588</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1596125163016957</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1119805778459444</v>
       </c>
       <c r="N10">
-        <v>0.554533024474523</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5641348034767617</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.614814018843788</v>
+        <v>5.5937915612231</v>
       </c>
       <c r="C11">
-        <v>1.108146996345596</v>
+        <v>1.199390250184479</v>
       </c>
       <c r="D11">
-        <v>0.04935248978033968</v>
+        <v>0.06594042803965294</v>
       </c>
       <c r="E11">
-        <v>0.06184893299388072</v>
+        <v>0.05690605995189812</v>
       </c>
       <c r="F11">
-        <v>1.00720469946647</v>
+        <v>0.8141398317381459</v>
       </c>
       <c r="G11">
-        <v>0.8788903569502082</v>
+        <v>0.7705513479733384</v>
       </c>
       <c r="H11">
-        <v>0.02726067635411766</v>
+        <v>0.02565072438260074</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5150418658985387</v>
+        <v>0.3571917598827099</v>
       </c>
       <c r="K11">
-        <v>0.3573878651766762</v>
+        <v>0.2523667697718182</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1261931128083802</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08426191948410633</v>
       </c>
       <c r="N11">
-        <v>0.4164897097703744</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4214167099806474</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.75210919122577</v>
+        <v>5.730076474098212</v>
       </c>
       <c r="C12">
-        <v>1.213005050597928</v>
+        <v>1.287976507163364</v>
       </c>
       <c r="D12">
-        <v>0.06055143732831425</v>
+        <v>0.07906867160702546</v>
       </c>
       <c r="E12">
-        <v>0.06364445492792115</v>
+        <v>0.06040445970664177</v>
       </c>
       <c r="F12">
-        <v>0.887945738957697</v>
+        <v>0.7133814933688427</v>
       </c>
       <c r="G12">
-        <v>0.7458850684496667</v>
+        <v>0.6813938426042938</v>
       </c>
       <c r="H12">
-        <v>0.0656650092750084</v>
+        <v>0.06403134325033477</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4447504767068011</v>
+        <v>0.2860094590766948</v>
       </c>
       <c r="K12">
-        <v>0.2780720862775716</v>
+        <v>0.1954862397708226</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1057740170401491</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06260531183664497</v>
       </c>
       <c r="N12">
-        <v>0.3044616389033337</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3065649540425994</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71583732749616</v>
+        <v>5.695513395739113</v>
       </c>
       <c r="C13">
-        <v>1.284837816527386</v>
+        <v>1.344781568721544</v>
       </c>
       <c r="D13">
-        <v>0.07185227145006223</v>
+        <v>0.08978083263539816</v>
       </c>
       <c r="E13">
-        <v>0.07333936148064524</v>
+        <v>0.07137575662608775</v>
       </c>
       <c r="F13">
-        <v>0.7589713866702965</v>
+        <v>0.6189501813433935</v>
       </c>
       <c r="G13">
-        <v>0.6101273145759336</v>
+        <v>0.5683790445347938</v>
       </c>
       <c r="H13">
-        <v>0.1204761339102021</v>
+        <v>0.119029901608485</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3759569524056587</v>
+        <v>0.2522097949045659</v>
       </c>
       <c r="K13">
-        <v>0.2119312646201301</v>
+        <v>0.1550804041372942</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.092668563843473</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04485415751593891</v>
       </c>
       <c r="N13">
-        <v>0.2067444304316339</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2072456020359752</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.61200781916807</v>
+        <v>5.593992265217594</v>
       </c>
       <c r="C14">
-        <v>1.320287464059106</v>
+        <v>1.370265170975813</v>
       </c>
       <c r="D14">
-        <v>0.07994713022126376</v>
+        <v>0.09610253346218656</v>
       </c>
       <c r="E14">
-        <v>0.08490125370807178</v>
+        <v>0.08363250277364287</v>
       </c>
       <c r="F14">
-        <v>0.6658836618817503</v>
+        <v>0.55539858645907</v>
       </c>
       <c r="G14">
-        <v>0.515920511564687</v>
+        <v>0.4819821359814398</v>
       </c>
       <c r="H14">
-        <v>0.1689341316274806</v>
+        <v>0.1676940770130102</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3294312373059682</v>
+        <v>0.2414852958411657</v>
       </c>
       <c r="K14">
-        <v>0.1732450841591273</v>
+        <v>0.1340483407861779</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08635876460404468</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.034509150971612</v>
       </c>
       <c r="N14">
-        <v>0.14806191221912</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1479114846182057</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549684883731231</v>
+        <v>5.532779143096661</v>
       </c>
       <c r="C15">
-        <v>1.320799522972379</v>
+        <v>1.368843415605056</v>
       </c>
       <c r="D15">
-        <v>0.08163040845142433</v>
+        <v>0.0968392660051407</v>
       </c>
       <c r="E15">
-        <v>0.08800453615195636</v>
+        <v>0.08693902964594002</v>
       </c>
       <c r="F15">
-        <v>0.6406593585178371</v>
+        <v>0.5400221760760004</v>
       </c>
       <c r="G15">
-        <v>0.4914450900645022</v>
+        <v>0.4567176982582879</v>
       </c>
       <c r="H15">
-        <v>0.1810403343063882</v>
+        <v>0.179894276873668</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3179852621560713</v>
+        <v>0.2438615896634317</v>
       </c>
       <c r="K15">
-        <v>0.1653085801413425</v>
+        <v>0.1307879785334602</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08559311171860351</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0323774792138547</v>
       </c>
       <c r="N15">
-        <v>0.1345561813143945</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.134380297072191</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.197026350760552</v>
+        <v>5.185206709489535</v>
       </c>
       <c r="C16">
-        <v>1.238310917252136</v>
+        <v>1.290540206767332</v>
       </c>
       <c r="D16">
-        <v>0.0773512502633551</v>
+        <v>0.08869617450557854</v>
       </c>
       <c r="E16">
-        <v>0.08323266112963701</v>
+        <v>0.08277206699613515</v>
       </c>
       <c r="F16">
-        <v>0.6140193296812555</v>
+        <v>0.537969685258318</v>
       </c>
       <c r="G16">
-        <v>0.4720818433223712</v>
+        <v>0.4166148886101979</v>
       </c>
       <c r="H16">
-        <v>0.1663425791658</v>
+        <v>0.1656115052878278</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3148842074241145</v>
+        <v>0.2891899033930088</v>
       </c>
       <c r="K16">
-        <v>0.1729624679586834</v>
+        <v>0.1445606668581156</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09193508652831994</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03417454178326551</v>
       </c>
       <c r="N16">
-        <v>0.1289339269244252</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1297907984818991</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.982624025226357</v>
+        <v>4.973262176089349</v>
       </c>
       <c r="C17">
-        <v>1.156513121999126</v>
+        <v>1.215443546604263</v>
       </c>
       <c r="D17">
-        <v>0.06971260987719319</v>
+        <v>0.07969714019859708</v>
       </c>
       <c r="E17">
-        <v>0.07263849308883508</v>
+        <v>0.07216060984309536</v>
       </c>
       <c r="F17">
-        <v>0.6425565055989253</v>
+        <v>0.5685973732530485</v>
       </c>
       <c r="G17">
-        <v>0.5064747216137704</v>
+        <v>0.433300211992929</v>
       </c>
       <c r="H17">
-        <v>0.127588206865525</v>
+        <v>0.1270414577633687</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3369211118893389</v>
+        <v>0.328287722480809</v>
       </c>
       <c r="K17">
-        <v>0.1986685778614223</v>
+        <v>0.1665579564875088</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1008501317750454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04064554332896719</v>
       </c>
       <c r="N17">
-        <v>0.1534250975245612</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1554305961054254</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.861845780642909</v>
+        <v>4.853311356744086</v>
       </c>
       <c r="C18">
-        <v>1.06845942936161</v>
+        <v>1.138378245703336</v>
       </c>
       <c r="D18">
-        <v>0.05923035943307298</v>
+        <v>0.06907161342972046</v>
       </c>
       <c r="E18">
-        <v>0.06070433860385549</v>
+        <v>0.05946464927657935</v>
       </c>
       <c r="F18">
-        <v>0.7244961504916034</v>
+        <v>0.6365606502508214</v>
       </c>
       <c r="G18">
-        <v>0.5954529772809281</v>
+        <v>0.4977661167252165</v>
       </c>
       <c r="H18">
-        <v>0.07454910346951493</v>
+        <v>0.07405234912825165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3851280157875436</v>
+        <v>0.3758716604303203</v>
       </c>
       <c r="K18">
-        <v>0.2479392805894634</v>
+        <v>0.2029189169598844</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1148956944493325</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05343855330299974</v>
       </c>
       <c r="N18">
-        <v>0.216206446782536</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2199590128125877</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.825006709288289</v>
+        <v>4.815937258048621</v>
       </c>
       <c r="C19">
-        <v>0.9851000359814464</v>
+        <v>1.068392391784812</v>
       </c>
       <c r="D19">
-        <v>0.04848989264797865</v>
+        <v>0.05857195692137651</v>
       </c>
       <c r="E19">
-        <v>0.05574900035394581</v>
+        <v>0.05277825044078543</v>
       </c>
       <c r="F19">
-        <v>0.8488905239102422</v>
+        <v>0.7346376574820113</v>
       </c>
       <c r="G19">
-        <v>0.7299344071394245</v>
+        <v>0.5994946116142472</v>
       </c>
       <c r="H19">
-        <v>0.02989001280717929</v>
+        <v>0.02932531017779638</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4546217147676401</v>
+        <v>0.4326941471686467</v>
       </c>
       <c r="K19">
-        <v>0.3207857148849094</v>
+        <v>0.2540210463485373</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1340724228529986</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07271835190226739</v>
       </c>
       <c r="N19">
-        <v>0.32024891312129</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3264448381056155</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.024921615433357</v>
+        <v>5.011326005324634</v>
       </c>
       <c r="C20">
-        <v>0.9153414457040583</v>
+        <v>1.019548242475793</v>
       </c>
       <c r="D20">
-        <v>0.03685190035499986</v>
+        <v>0.04785021538501866</v>
       </c>
       <c r="E20">
-        <v>0.06897508970418542</v>
+        <v>0.06174071450064833</v>
       </c>
       <c r="F20">
-        <v>1.088543295115926</v>
+        <v>0.9125941014144132</v>
       </c>
       <c r="G20">
-        <v>0.9874627250040078</v>
+        <v>0.803394843406366</v>
       </c>
       <c r="H20">
-        <v>0.006740826495270635</v>
+        <v>0.005706107116475234</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5813179910998798</v>
+        <v>0.5082509838189821</v>
       </c>
       <c r="K20">
-        <v>0.4559646536543625</v>
+        <v>0.3414008828410076</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1640179332337475</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1100051625158294</v>
       </c>
       <c r="N20">
-        <v>0.5357990774162005</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5459909887120489</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.667744744599986</v>
+        <v>5.643139769544973</v>
       </c>
       <c r="C21">
-        <v>1.016096084452073</v>
+        <v>1.12149787728373</v>
       </c>
       <c r="D21">
-        <v>0.03789617556543945</v>
+        <v>0.05446889322880821</v>
       </c>
       <c r="E21">
-        <v>0.07667226696502638</v>
+        <v>0.06783369640055881</v>
       </c>
       <c r="F21">
-        <v>1.220520830781837</v>
+        <v>0.9622589423101431</v>
       </c>
       <c r="G21">
-        <v>1.112864676781072</v>
+        <v>0.9700276133067121</v>
       </c>
       <c r="H21">
-        <v>0.01135744413664194</v>
+        <v>0.009242630626239021</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6323123034460139</v>
+        <v>0.4007711291628766</v>
       </c>
       <c r="K21">
-        <v>0.4890708150418277</v>
+        <v>0.332363444379439</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.153157336777312</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1182902975223463</v>
       </c>
       <c r="N21">
-        <v>0.6208569352155706</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6288995039046625</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.089635418754256</v>
+        <v>6.05689422471886</v>
       </c>
       <c r="C22">
-        <v>1.087093190248623</v>
+        <v>1.191045743967265</v>
       </c>
       <c r="D22">
-        <v>0.03906838301154636</v>
+        <v>0.05976971479761062</v>
       </c>
       <c r="E22">
-        <v>0.08067167827600485</v>
+        <v>0.07103369058606912</v>
       </c>
       <c r="F22">
-        <v>1.298926937484936</v>
+        <v>0.9852684782897683</v>
       </c>
       <c r="G22">
-        <v>1.185827363063936</v>
+        <v>1.080062894258134</v>
       </c>
       <c r="H22">
-        <v>0.01490240194375969</v>
+        <v>0.01192828436321786</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6611518845169257</v>
+        <v>0.330119873378024</v>
       </c>
       <c r="K22">
-        <v>0.5052166476325937</v>
+        <v>0.3215676377457015</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1445145092239883</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1220627538413908</v>
       </c>
       <c r="N22">
-        <v>0.6661108896251591</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6722275069111134</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864227661539019</v>
+        <v>5.836128518256317</v>
       </c>
       <c r="C23">
-        <v>1.049155185150994</v>
+        <v>1.156169780643665</v>
       </c>
       <c r="D23">
-        <v>0.03844363390025762</v>
+        <v>0.05650830151638786</v>
       </c>
       <c r="E23">
-        <v>0.07852882380387349</v>
+        <v>0.06929466970666276</v>
       </c>
       <c r="F23">
-        <v>1.256818382050227</v>
+        <v>0.9783753574336487</v>
       </c>
       <c r="G23">
-        <v>1.146618810875395</v>
+        <v>1.012315781406599</v>
       </c>
       <c r="H23">
-        <v>0.01295456122001187</v>
+        <v>0.01047324097639127</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.645621757366996</v>
+        <v>0.3802706425052378</v>
       </c>
       <c r="K23">
-        <v>0.4964584665827658</v>
+        <v>0.3297106537646712</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.149910344835142</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.121020070662599</v>
       </c>
       <c r="N23">
-        <v>0.6419199906870574</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6493724500434013</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.01530793784184</v>
+        <v>5.001681890114014</v>
       </c>
       <c r="C24">
-        <v>0.9063766887317684</v>
+        <v>1.011604901941581</v>
       </c>
       <c r="D24">
-        <v>0.03605793116865641</v>
+        <v>0.04693169952077625</v>
       </c>
       <c r="E24">
-        <v>0.07057837136828482</v>
+        <v>0.06301854157503861</v>
       </c>
       <c r="F24">
-        <v>1.10280520798284</v>
+        <v>0.923930434310293</v>
       </c>
       <c r="G24">
-        <v>1.003693912035885</v>
+        <v>0.8151015755034337</v>
       </c>
       <c r="H24">
-        <v>0.006746664780115097</v>
+        <v>0.005699442295173385</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5896976197456496</v>
+        <v>0.5158218026888619</v>
       </c>
       <c r="K24">
-        <v>0.4662492307867723</v>
+        <v>0.3487435829390293</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1668063467589711</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1127198143214549</v>
       </c>
       <c r="N24">
-        <v>0.5510718594273811</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5616239223578958</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.107291658493068</v>
+        <v>4.103712315655571</v>
       </c>
       <c r="C25">
-        <v>0.753745807216518</v>
+        <v>0.8324057620965561</v>
       </c>
       <c r="D25">
-        <v>0.03344172465785533</v>
+        <v>0.04100388752246431</v>
       </c>
       <c r="E25">
-        <v>0.06225534455894177</v>
+        <v>0.05657988759821819</v>
       </c>
       <c r="F25">
-        <v>0.9466616094346989</v>
+        <v>0.8105242736864966</v>
       </c>
       <c r="G25">
-        <v>0.859673605558001</v>
+        <v>0.7018820268769446</v>
       </c>
       <c r="H25">
-        <v>0.002205906331382956</v>
+        <v>0.001980769257223236</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5347469759493464</v>
+        <v>0.4936134862683303</v>
       </c>
       <c r="K25">
-        <v>0.4391933304017499</v>
+        <v>0.3449870206938392</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1762279327944718</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09636570821065149</v>
       </c>
       <c r="N25">
-        <v>0.4543421100148635</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4646632396599841</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
